--- a/df_score_y2.xlsx
+++ b/df_score_y2.xlsx
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0075</v>
+        <v>0.0081</v>
       </c>
       <c r="C4">
-        <v>212952.5372</v>
+        <v>209664.1657</v>
       </c>
       <c r="D4">
-        <v>461.4678</v>
+        <v>457.891</v>
       </c>
       <c r="E4">
-        <v>369.1849</v>
+        <v>366.389</v>
       </c>
       <c r="F4">
-        <v>0.1608</v>
+        <v>0.1593</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0483</v>
+        <v>-0.0457</v>
       </c>
       <c r="C6">
-        <v>221578.668</v>
+        <v>221031.6345</v>
       </c>
       <c r="D6">
-        <v>470.7214</v>
+        <v>470.14</v>
       </c>
       <c r="E6">
-        <v>375.057</v>
+        <v>376.2396</v>
       </c>
       <c r="F6">
-        <v>0.1623</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0057</v>
+        <v>-0.0032</v>
       </c>
       <c r="C7">
-        <v>199095.2972</v>
+        <v>198591.4892</v>
       </c>
       <c r="D7">
-        <v>446.201</v>
+        <v>445.6361</v>
       </c>
       <c r="E7">
-        <v>360.3813</v>
+        <v>360.2859</v>
       </c>
       <c r="F7">
-        <v>0.1521</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +567,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0046</v>
+        <v>-0.0051</v>
       </c>
       <c r="C8">
-        <v>198884.1932</v>
+        <v>198968.1115</v>
       </c>
       <c r="D8">
-        <v>445.9643</v>
+        <v>446.0584</v>
       </c>
       <c r="E8">
-        <v>360.3431</v>
+        <v>360.3578</v>
       </c>
       <c r="F8">
         <v>0.1522</v>
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.005</v>
+        <v>-0.0078</v>
       </c>
       <c r="C9">
-        <v>198949.3158</v>
+        <v>199503.3557</v>
       </c>
       <c r="D9">
-        <v>446.0373</v>
+        <v>446.658</v>
       </c>
       <c r="E9">
-        <v>360.3548</v>
+        <v>360.5086</v>
       </c>
       <c r="F9">
-        <v>0.1522</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -610,13 +610,13 @@
         <v>-0.0052</v>
       </c>
       <c r="C10">
-        <v>198992.1619</v>
+        <v>198986.9012</v>
       </c>
       <c r="D10">
-        <v>446.0854</v>
+        <v>446.0795</v>
       </c>
       <c r="E10">
-        <v>360.3618</v>
+        <v>360.361</v>
       </c>
       <c r="F10">
         <v>0.1521</v>

--- a/df_score_y2.xlsx
+++ b/df_score_y2.xlsx
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0081</v>
+        <v>-0.0025</v>
       </c>
       <c r="C4">
-        <v>209664.1657</v>
+        <v>211885.7568</v>
       </c>
       <c r="D4">
-        <v>457.891</v>
+        <v>460.3105</v>
       </c>
       <c r="E4">
-        <v>366.389</v>
+        <v>369.9909</v>
       </c>
       <c r="F4">
-        <v>0.1593</v>
+        <v>0.1607</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0457</v>
+        <v>-0.0195</v>
       </c>
       <c r="C6">
-        <v>221031.6345</v>
+        <v>215479.5419</v>
       </c>
       <c r="D6">
-        <v>470.14</v>
+        <v>464.1977</v>
       </c>
       <c r="E6">
-        <v>376.2396</v>
+        <v>370.8608</v>
       </c>
       <c r="F6">
-        <v>0.1636</v>
+        <v>0.1609</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0032</v>
+        <v>-0.0047</v>
       </c>
       <c r="C7">
-        <v>198591.4892</v>
+        <v>198898.0145</v>
       </c>
       <c r="D7">
-        <v>445.6361</v>
+        <v>445.9798</v>
       </c>
       <c r="E7">
-        <v>360.2859</v>
+        <v>360.3457</v>
       </c>
       <c r="F7">
-        <v>0.1525</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0051</v>
+        <v>-0.0033</v>
       </c>
       <c r="C8">
-        <v>198968.1115</v>
+        <v>198625.4151</v>
       </c>
       <c r="D8">
-        <v>446.0584</v>
+        <v>445.6741</v>
       </c>
       <c r="E8">
-        <v>360.3578</v>
+        <v>360.2931</v>
       </c>
       <c r="F8">
-        <v>0.1522</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0078</v>
+        <v>-0.0045</v>
       </c>
       <c r="C9">
-        <v>199503.3557</v>
+        <v>198853.3015</v>
       </c>
       <c r="D9">
-        <v>446.658</v>
+        <v>445.9297</v>
       </c>
       <c r="E9">
-        <v>360.5086</v>
+        <v>360.3378</v>
       </c>
       <c r="F9">
-        <v>0.1518</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0052</v>
+        <v>-0.0032</v>
       </c>
       <c r="C10">
-        <v>198986.9012</v>
+        <v>198603.2294</v>
       </c>
       <c r="D10">
-        <v>446.0795</v>
+        <v>445.6492</v>
       </c>
       <c r="E10">
-        <v>360.361</v>
+        <v>360.2882</v>
       </c>
       <c r="F10">
-        <v>0.1521</v>
+        <v>0.1525</v>
       </c>
     </row>
   </sheetData>

--- a/df_score_y2.xlsx
+++ b/df_score_y2.xlsx
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0025</v>
+        <v>0.0091</v>
       </c>
       <c r="C4">
-        <v>211885.7568</v>
+        <v>209452.2379</v>
       </c>
       <c r="D4">
-        <v>460.3105</v>
+        <v>457.6595</v>
       </c>
       <c r="E4">
-        <v>369.9909</v>
+        <v>366.5181</v>
       </c>
       <c r="F4">
-        <v>0.1607</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0195</v>
+        <v>-0.0181</v>
       </c>
       <c r="C6">
-        <v>215479.5419</v>
+        <v>215203.0956</v>
       </c>
       <c r="D6">
-        <v>464.1977</v>
+        <v>463.8999</v>
       </c>
       <c r="E6">
-        <v>370.8608</v>
+        <v>371.3207</v>
       </c>
       <c r="F6">
-        <v>0.1609</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0047</v>
+        <v>-0.0036</v>
       </c>
       <c r="C7">
-        <v>198898.0145</v>
+        <v>198679.665</v>
       </c>
       <c r="D7">
-        <v>445.9798</v>
+        <v>445.735</v>
       </c>
       <c r="E7">
-        <v>360.3457</v>
+        <v>360.3044</v>
       </c>
       <c r="F7">
-        <v>0.1522</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0033</v>
+        <v>-0.0031</v>
       </c>
       <c r="C8">
-        <v>198625.4151</v>
+        <v>198576.5801</v>
       </c>
       <c r="D8">
-        <v>445.6741</v>
+        <v>445.6193</v>
       </c>
       <c r="E8">
-        <v>360.2931</v>
+        <v>360.2825</v>
       </c>
       <c r="F8">
-        <v>0.1525</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0045</v>
+        <v>-0.0054</v>
       </c>
       <c r="C9">
-        <v>198853.3015</v>
+        <v>199034.8339</v>
       </c>
       <c r="D9">
-        <v>445.9297</v>
+        <v>446.1332</v>
       </c>
       <c r="E9">
-        <v>360.3378</v>
+        <v>360.3692</v>
       </c>
       <c r="F9">
-        <v>0.1523</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,16 +607,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0032</v>
+        <v>-0.0035</v>
       </c>
       <c r="C10">
-        <v>198603.2294</v>
+        <v>198663.9298</v>
       </c>
       <c r="D10">
-        <v>445.6492</v>
+        <v>445.7173</v>
       </c>
       <c r="E10">
-        <v>360.2882</v>
+        <v>360.3011</v>
       </c>
       <c r="F10">
         <v>0.1525</v>
